--- a/xlsx/自由党 (美国)_intext.xlsx
+++ b/xlsx/自由党 (美国)_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="326">
   <si>
     <t>自由党 (美国)</t>
   </si>
@@ -29,7 +29,7 @@
     <t>华盛顿哥伦比亚特区</t>
   </si>
   <si>
-    <t>政策_政策_美國_自由党 (美国)</t>
+    <t>政策_政策_美国_自由党 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E8%AF%86%E5%BD%A2%E6%80%81</t>
@@ -41,19 +41,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E6%94%BF%E5%BA%9C%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>小政府主義</t>
+    <t>小政府主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>自由意志主義</t>
+    <t>自由意志主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E6%94%BF%E4%BF%9D%E5%AE%88%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>財政保守主義</t>
+    <t>财政保守主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%94%BE%E4%BB%BB</t>
@@ -71,13 +71,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%94%BF%E9%BB%A8%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際政黨組織</t>
+    <t>国际政党组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97%E9%BB%A8%E5%9C%8B%E9%9A%9B%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>自由意志黨國際聯盟</t>
+    <t>自由意志党国际联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%89%B2</t>
@@ -89,31 +89,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8F%83%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>美國參議院</t>
+    <t>美国参议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9C%BE%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>美國眾議院</t>
+    <t>美国众议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%95%B7</t>
   </si>
   <si>
-    <t>州長</t>
+    <t>州长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%94%BF%E5%BA%9C%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>無政府主義</t>
+    <t>无政府主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>古典自由主義</t>
+    <t>古典自由主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Counter-economics</t>
@@ -131,13 +131,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E8%87%AA%E7%94%B1</t>
   </si>
   <si>
-    <t>經濟自由</t>
+    <t>经济自由</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E7%AD%89%E5%8E%9F%E5%89%87</t>
   </si>
   <si>
-    <t>平等原則</t>
+    <t>平等原则</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E7%A4%BE%E4%BC%9A</t>
@@ -149,13 +149,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%B8%82%E5%A0%B4</t>
   </si>
   <si>
-    <t>自由市場</t>
+    <t>自由市场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%B2%BF%E6%98%93</t>
   </si>
   <si>
-    <t>自由貿易</t>
+    <t>自由贸易</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E7%A4%BE%E8%87%AA%E7%94%B1</t>
   </si>
   <si>
-    <t>結社自由</t>
+    <t>结社自由</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%91%E7%BA%A6%E8%87%AA%E7%94%B1%E5%8E%9F%E5%88%99</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%80%8B%E4%BA%BA%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>個人主義</t>
+    <t>个人主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1</t>
@@ -191,25 +191,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E6%B3%95%E8%AB%96%E7%9A%84%E5%80%8B%E4%BA%BA%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>方法論的個人主義</t>
+    <t>方法论的个人主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E6%AC%8A%E5%88%A9</t>
   </si>
   <si>
-    <t>自然權利</t>
+    <t>自然权利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E4%B8%8D%E4%BE%B5%E7%8A%AF%E5%8E%9F%E5%89%87</t>
   </si>
   <si>
-    <t>互不侵犯原則</t>
+    <t>互不侵犯原则</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E7%94%A2%E6%AC%8A</t>
   </si>
   <si>
-    <t>財產權</t>
+    <t>财产权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%82%E4%B8%8E%E5%9E%8B%E7%BB%8F%E6%B5%8E</t>
@@ -233,13 +233,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E6%88%91%E6%89%80%E6%9C%89%E6%AC%8A</t>
   </si>
   <si>
-    <t>自我所有權</t>
+    <t>自我所有权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E8%A7%80%E5%83%B9%E5%80%BC%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>主觀價值理論</t>
+    <t>主观价值理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%BA%BA%E8%87%AA%E6%B2%BB</t>
@@ -257,49 +257,49 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%94%BF%E5%BA%9C%E8%B3%87%E6%9C%AC%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>無政府資本主義</t>
+    <t>无政府资本主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%94%BF%E5%BA%9C%E5%85%B1%E7%94%A2%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>無政府共產主義</t>
+    <t>无政府共产主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97%E4%BF%9D%E5%AE%88%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>自由意志保守主義</t>
+    <t>自由意志保守主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>自由意志社會主義</t>
+    <t>自由意志社会主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A6%E6%B4%BE%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>左派自由意志主義</t>
+    <t>左派自由意志主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B3%E6%B4%BE%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>右派自由意志主義</t>
+    <t>右派自由意志主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%B8%82%E5%A0%B4%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>自由市場自由意志主義</t>
+    <t>自由市场自由意志主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>喬治自由意志主義</t>
+    <t>乔治自由意志主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E7%89%B9%C2%B7%E5%B8%83%E6%8B%89%E5%85%8B</t>
@@ -311,7 +311,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E5%A7%86%C2%B7%E5%96%AC%E5%A7%86%E6%96%AF%E5%9F%BA</t>
   </si>
   <si>
-    <t>諾姆·喬姆斯基</t>
+    <t>诺姆·乔姆斯基</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Joseph_D%C3%A9jacque</t>
@@ -323,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E7%88%BE%E9%A0%93%C2%B7%E5%82%85%E5%88%A9%E6%9B%BC</t>
   </si>
   <si>
-    <t>米爾頓·傅利曼</t>
+    <t>米尔顿·傅利曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%C2%B7%E4%B9%94%E6%B2%BB</t>
@@ -341,55 +341,55 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%C2%B7%E8%B5%AB%E8%8C%B2%E5%88%A9%E7%89%B9</t>
   </si>
   <si>
-    <t>亨利·赫茲利特</t>
+    <t>亨利·赫兹利特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E6%96%AF-%E8%B5%AB%E7%88%BE%E6%9B%BC%C2%B7%E9%9C%8D%E6%99%AE</t>
   </si>
   <si>
-    <t>漢斯-赫爾曼·霍普</t>
+    <t>汉斯-赫尔曼·霍普</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%88%BE%C2%B7%E9%96%80%E6%A0%BC%E7%88%BE</t>
   </si>
   <si>
-    <t>卡爾·門格爾</t>
+    <t>卡尔·门格尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E5%BE%B7%E7%B6%AD%E5%B8%8C%C2%B7%E9%A6%AE%C2%B7%E7%B1%B3%E5%A1%9E%E6%96%AF</t>
   </si>
   <si>
-    <t>路德維希·馮·米塞斯</t>
+    <t>路德维希·冯·米塞斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E8%AB%BE%E9%BD%8A%E5%85%8B</t>
   </si>
   <si>
-    <t>羅伯特·諾齊克</t>
+    <t>罗伯特·诺齐克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A6%AE%C2%B7%E4%BF%9D%E7%BE%85</t>
   </si>
   <si>
-    <t>榮·保羅</t>
+    <t>荣·保罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E8%8C%B5%C2%B7%E8%98%AD%E5%BE%B7</t>
   </si>
   <si>
-    <t>艾茵·蘭德</t>
+    <t>艾茵·兰德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E5%9F%83%E6%9E%97%C2%B7%E7%BE%85%E5%85%8B%E7%B6%AD%E7%88%BE</t>
   </si>
   <si>
-    <t>盧埃林·羅克維爾</t>
+    <t>卢埃林·罗克维尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E7%91%9E%C2%B7%E7%BE%85%E6%96%AF%E5%B7%B4%E5%BE%B7</t>
   </si>
   <si>
-    <t>穆瑞·羅斯巴德</t>
+    <t>穆瑞·罗斯巴德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%91%9F%E5%A4%AB%C2%B7%E7%86%8A%E5%BD%BC%E7%89%B9</t>
@@ -401,31 +401,31 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%C2%B7%E6%88%B4%E7%B6%AD%C2%B7%E6%A2%AD%E7%BE%85</t>
   </si>
   <si>
-    <t>亨利·戴維·梭羅</t>
+    <t>亨利·戴维·梭罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%97%E5%A4%AB%C2%B7%E6%89%98%E7%88%BE%E6%96%AF%E6%B3%B0</t>
   </si>
   <si>
-    <t>列夫·托爾斯泰</t>
+    <t>列夫·托尔斯泰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%88%B0</t>
   </si>
   <si>
-    <t>反戰</t>
+    <t>反战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%94%BF%E5%BA%9C%E5%B7%A5%E5%9C%98%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>無政府工團主義</t>
+    <t>无政府工团主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>公民社會主義</t>
+    <t>公民社会主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%AA%E6%94%BF%E4%B8%BB%E4%B9%89</t>
@@ -437,13 +437,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97%E4%B8%BB%E7%BE%A9%E5%85%B1%E5%92%8C%E9%BB%A8%E4%BA%BA</t>
   </si>
   <si>
-    <t>自由意志主義共和黨人</t>
+    <t>自由意志主义共和党人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E7%AB%8B%E6%86%B2%E5%88%B6</t>
   </si>
   <si>
-    <t>共和立憲制</t>
+    <t>共和立宪制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Libertarianism</t>
@@ -455,7 +455,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E8%87%AA%E7%94%B1</t>
@@ -467,7 +467,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E4%BD%8E%E5%B7%A5%E8%B3%87</t>
   </si>
   <si>
-    <t>最低工資</t>
+    <t>最低工资</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%80%E6%9C%89%E6%9D%83</t>
@@ -479,49 +479,49 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%80%E8%AB%96%E8%87%AA%E7%94%B1</t>
   </si>
   <si>
-    <t>言論自由</t>
+    <t>言论自由</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%AE%E8%83%8E</t>
   </si>
   <si>
-    <t>墮胎</t>
+    <t>堕胎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B5%E5%85%B5%E5%88%B6</t>
   </si>
   <si>
-    <t>徵兵制</t>
+    <t>征兵制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>民主黨 (美國)</t>
+    <t>民主党 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>共和黨 (美國)</t>
+    <t>共和党 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E8%98%AD%E6%9B%B2%E7%B7%9A</t>
   </si>
   <si>
-    <t>諾蘭曲線</t>
+    <t>诺兰曲线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>美國憲法</t>
+    <t>美国宪法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%BB%A8</t>
   </si>
   <si>
-    <t>政黨</t>
+    <t>政党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%9F%A5%C2%B7%E5%B0%BC%E5%85%8B%E6%A3%AE</t>
@@ -533,61 +533,61 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%96%8B%E5%9C%8B%E5%85%83%E5%8B%B3</t>
   </si>
   <si>
-    <t>美國開國元勳</t>
+    <t>美国开国元勳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1984%E5%B9%B4%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>1984年美國總統選舉</t>
+    <t>1984年美国总统选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1988%E5%B9%B4%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>1988年美國總統選舉</t>
+    <t>1988年美国总统选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1992%E5%B9%B4%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>1992年美國總統選舉</t>
+    <t>1992年美国总统选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1996%E5%B9%B4%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>1996年美國總統選舉</t>
+    <t>1996年美国总统选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2000%E5%B9%B4%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>2000年美國總統選舉</t>
+    <t>2000年美国总统选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2004%E5%B9%B4%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>2004年美國總統選舉</t>
+    <t>2004年美国总统选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>維吉尼亞州</t>
+    <t>维吉尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E7%89%B9%E5%8D%80</t>
   </si>
   <si>
-    <t>哥倫比亞特區</t>
+    <t>哥伦比亚特区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
   </si>
   <si>
-    <t>關島</t>
+    <t>关岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A4%BE%E4%BC%9A%E5%85%9A</t>
@@ -605,13 +605,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E6%BE%A4%E8%A5%BF%E5%B7%9E</t>
   </si>
   <si>
-    <t>紐澤西州</t>
+    <t>纽泽西州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E7%89%B9%E6%95%A6%E7%B8%A3</t>
   </si>
   <si>
-    <t>亨特敦縣</t>
+    <t>亨特敦县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E4%BD%9B%E5%B8%82</t>
@@ -641,19 +641,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
   </si>
   <si>
-    <t>亞利桑那州</t>
+    <t>亚利桑那州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%89%B9%E8%98%AD%E5%A4%A7</t>
   </si>
   <si>
-    <t>亞特蘭大</t>
+    <t>亚特兰大</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%89%B9%C2%B7%E9%87%91%E9%87%8C%E5%A5%87</t>
   </si>
   <si>
-    <t>紐特·金里奇</t>
+    <t>纽特·金里奇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%89%98%E7%A0%94%E7%A9%B6%E6%89%80</t>
@@ -665,49 +665,49 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>社會自由主義</t>
+    <t>社会自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%AE%88%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>保守主義</t>
+    <t>保守主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E5%9C%96%E6%81%A9</t>
   </si>
   <si>
-    <t>約翰·圖恩</t>
+    <t>约翰·图恩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E7%88%BE%C2%B7%E6%9F%AF%E6%9E%97%E9%A0%93</t>
   </si>
   <si>
-    <t>比爾·柯林頓</t>
+    <t>比尔·柯林顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%84%9B%E5%9C%8B%E6%B3%95</t>
   </si>
   <si>
-    <t>美國愛國法</t>
+    <t>美国爱国法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9A%86%E7%B4%8D%C2%B7%E9%9B%B7%E6%A0%B9</t>
   </si>
   <si>
-    <t>隆納·雷根</t>
+    <t>隆纳·雷根</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B6%A0%E9%BB%A8</t>
   </si>
   <si>
-    <t>美國綠黨</t>
+    <t>美国绿党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2006%E5%B9%B4%E7%BE%8E%E5%9C%8B%E6%9C%9F%E4%B8%AD%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>2006年美國期中選舉</t>
+    <t>2006年美国期中选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%B0%94%E5%A4%AB%C2%B7%E7%BA%B3%E5%BE%B7</t>
@@ -719,13 +719,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%86%B2%E6%B3%95%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>憲法黨 (美國)</t>
+    <t>宪法党 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E6%B2%83%E5%85%8B%C2%B7%E5%B8%83%E5%B8%8C</t>
   </si>
   <si>
-    <t>喬治·沃克·布希</t>
+    <t>乔治·沃克·布希</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E7%A6%8F%E5%B8%83%E6%96%AF%C2%B7%E5%85%8B%E9%87%8C</t>
@@ -755,13 +755,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B7%9E</t>
   </si>
   <si>
-    <t>紐約州</t>
+    <t>纽约州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>麻薩諸塞州</t>
+    <t>麻萨诸塞州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E8%BE%9B%E5%B7%9E</t>
@@ -779,7 +779,7 @@
     <t>https://zh.wikipedia.org/wiki/2008%E5%B9%B4%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1%E5%A4%A7%E9%81%B8</t>
   </si>
   <si>
-    <t>2008年美國總統大選</t>
+    <t>2008年美国总统大选</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%B7%9E</t>
@@ -791,19 +791,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B7%AC%E5%9B%A0%E5%B7%9E</t>
   </si>
   <si>
-    <t>緬因州</t>
+    <t>缅因州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%85%8B%E6%8B%89%E4%BD%95%E9%A6%AC%E5%B7%9E</t>
   </si>
   <si>
-    <t>俄克拉何馬州</t>
+    <t>俄克拉何马州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>西維吉尼亞州</t>
+    <t>西维吉尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%E5%AE%89%E9%82%A3%E5%B7%9E</t>
@@ -815,19 +815,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%95%B8%E7%9A%84%E6%9A%B4%E6%94%BF</t>
   </si>
   <si>
-    <t>多數的暴政</t>
+    <t>多数的暴政</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%80%E5%BE%97%E7%A8%85</t>
   </si>
   <si>
-    <t>所得稅</t>
+    <t>所得税</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8F%B8%E6%B3%95%E9%83%A8</t>
   </si>
   <si>
-    <t>美國司法部</t>
+    <t>美国司法部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E5%85%9A%E5%88%97%E8%A1%A8</t>
@@ -839,9 +839,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
   </si>
   <si>
-    <t>民主党 (美国)</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
   </si>
   <si>
@@ -851,9 +848,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%BB%BF%E5%85%9A</t>
   </si>
   <si>
-    <t>美国绿党</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/American_Party_(1969)</t>
   </si>
   <si>
@@ -863,13 +857,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9A%84%E9%BB%A8</t>
   </si>
   <si>
-    <t>美國的黨</t>
+    <t>美国的党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%98%E7%B5%90%E9%BB%A8</t>
   </si>
   <si>
-    <t>美國團結黨</t>
+    <t>美国团结党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E4%BA%BA%E9%AA%91%E5%A3%AB%E8%A7%A3%E6%94%BE%E5%85%9A</t>
@@ -923,7 +917,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E5%B9%B3%E8%88%87%E8%87%AA%E7%94%B1%E9%BB%A8</t>
   </si>
   <si>
-    <t>和平與自由黨</t>
+    <t>和平与自由党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%9B%E6%AD%A5%E5%8A%B3%E5%B7%A5%E5%85%9A</t>
@@ -965,13 +959,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9%E5%B9%B3%E7%AD%89%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>社會主義平等黨 (美國)</t>
+    <t>社会主义平等党 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9%E5%B7%A5%E4%BA%BA%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>社會主義工人黨 (美國)</t>
+    <t>社会主义工人党 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%BA%BA%E4%B8%96%E7%95%8C%E5%85%9A</t>
@@ -5516,7 +5510,7 @@
         <v>273</v>
       </c>
       <c r="F144" t="s">
-        <v>274</v>
+        <v>160</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5542,10 +5536,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>274</v>
+      </c>
+      <c r="F145" t="s">
         <v>275</v>
-      </c>
-      <c r="F145" t="s">
-        <v>276</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5571,10 +5565,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F146" t="s">
-        <v>278</v>
+        <v>228</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5629,10 +5623,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F148" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5658,10 +5652,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F149" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5687,10 +5681,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F150" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G150" t="n">
         <v>2</v>
@@ -5716,10 +5710,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F151" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5745,10 +5739,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F152" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5774,10 +5768,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F153" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5803,10 +5797,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F154" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5832,10 +5826,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F155" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5861,10 +5855,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F156" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -5890,10 +5884,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F157" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -5919,10 +5913,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F158" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -5948,10 +5942,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F159" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -5977,10 +5971,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F160" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6006,10 +6000,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F161" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6035,10 +6029,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F162" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6064,10 +6058,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F163" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6122,10 +6116,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F165" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6151,10 +6145,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F166" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6180,10 +6174,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F167" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6209,10 +6203,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F168" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6238,10 +6232,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F169" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6267,10 +6261,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F170" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6296,10 +6290,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F171" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6325,10 +6319,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F172" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G172" t="n">
         <v>2</v>
@@ -6354,10 +6348,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>323</v>
+      </c>
+      <c r="F173" t="s">
         <v>325</v>
-      </c>
-      <c r="F173" t="s">
-        <v>327</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
